--- a/RL result/score_1.xlsx
+++ b/RL result/score_1.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-346.0940533357566</v>
+        <v>-537.2303573315787</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-456.4682250302517</v>
+        <v>-1302.181603089784</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-136.6923289268233</v>
+        <v>-1434.096312710206</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-194.8529091014104</v>
+        <v>-491.6046512528633</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-100.9102738696825</v>
+        <v>-920.5280581852347</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-90.8964050190382</v>
+        <v>-815.8144545502824</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-85.16226903263684</v>
+        <v>-645.3310907557453</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-50.48719239441006</v>
+        <v>-279.74014833932</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-103.8479132139931</v>
+        <v>-278.6308304983161</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-93.210817806135</v>
+        <v>-299.9781127428588</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-102.3948498935068</v>
+        <v>-300.4535200081115</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-92.65475190318085</v>
+        <v>-525.405616108808</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-55.65717511052411</v>
+        <v>-522.3775708461508</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-72.36147408740364</v>
+        <v>-319.9148056465153</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-93.59888547392657</v>
+        <v>-398.7078938148065</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-81.78664100760729</v>
+        <v>-462.1906004304704</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-88.45921414821187</v>
+        <v>-364.1780382042362</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-102.374634561431</v>
+        <v>-237.4707374202483</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-238.5134764591329</v>
+        <v>-396.0792136110122</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-147.4275587320166</v>
+        <v>-242.8359260990544</v>
       </c>
     </row>
   </sheetData>

--- a/RL result/score_1.xlsx
+++ b/RL result/score_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-537.2303573315787</v>
+        <v>35437.20513601054</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1302.181603089784</v>
+        <v>4277.555781938792</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1434.096312710206</v>
+        <v>-25058.52628898144</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-491.6046512528633</v>
+        <v>-19207.269977271</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-920.5280581852347</v>
+        <v>-15633.72543620726</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-815.8144545502824</v>
+        <v>-6883.778983411493</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-645.3310907557453</v>
+        <v>11109.96344911142</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-279.74014833932</v>
+        <v>19196.84579150304</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-278.6308304983161</v>
+        <v>17737.07081463297</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-299.9781127428588</v>
+        <v>17754.59802752519</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-300.4535200081115</v>
+        <v>17842.60099404851</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-525.405616108808</v>
+        <v>18459.64993772796</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-522.3775708461508</v>
+        <v>19847.58545848459</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-319.9148056465153</v>
+        <v>19897.56975183242</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-398.7078938148065</v>
+        <v>19962.15408983541</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-462.1906004304704</v>
+        <v>20344.15886707538</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-364.1780382042362</v>
+        <v>36921.73766928881</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-237.4707374202483</v>
+        <v>35761.03420899572</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-396.0792136110122</v>
+        <v>38244.1504182487</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,3847 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-242.8359260990544</v>
+        <v>40788.4363662941</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>40841.48994906835</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>40849.28329124254</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>40844.71002794548</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>40855.05941748183</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>40853.57841646129</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>40838.55108581613</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>40839.10479999535</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>40841.65231725688</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>40862.444478936</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>33513.99674775468</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>8905.934295695044</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-8356.829380004639</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-8357.130261298671</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-8293.159713863697</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-6209.236143082527</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-12618.01405261777</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-10987.26894171573</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-5424.260694461582</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-9601.302081670286</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-31930.53553648021</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-1977.776547091886</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-11231.9135006665</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>17373.72692889526</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>21165.49533132073</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>23686.63440176444</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>21708.5546848915</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>33273.9244608048</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>40590.89023328944</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>40715.55981121731</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>40796.01497654487</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>40753.07758503692</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>42545.07014810348</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>43270.75843087309</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>44298.83683250115</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>44750.422291887</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>43968.89300854355</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>43628.8866274966</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>43852.8840589408</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>44001.50114526402</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>39471.77425977294</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>38171.01743550079</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>37619.67735879776</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>37557.3601469643</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>38431.28304906157</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>38100.83867821541</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>41705.52604061586</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>41324.03261736684</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>41009.63633973356</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>41364.79054798715</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>38461.54614508321</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>38376.59370957337</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>38399.25320839133</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>38442.03018181748</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>38732.4739336022</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>41546.14420080048</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>41507.55420549588</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>41820.80658288944</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>37817.76579897576</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>37531.0784869586</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>37702.66056797178</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>37617.68431814659</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>37533.89857439001</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>37811.18235081218</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>36572.56724299115</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>36707.69734808437</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>37124.19857259867</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>38213.41383437219</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>38135.58982837007</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>38310.00901191065</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>38907.48982572283</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>38719.45301208072</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>38852.03191271702</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>38616.75622121165</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>37534.74873117782</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>37500.35883325907</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>38144.71686799332</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>38330.48845096053</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>38100.55406091634</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>37038.20452685557</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>37975.62583247307</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>37810.98831893648</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>37817.18912811056</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>38278.00639647825</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>38343.5337525076</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>38332.29489768873</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>37983.50922063126</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>35849.687849867</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>35045.13406423538</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>35325.70295066715</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>35324.48885680298</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>35319.63323370755</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>35315.9048574976</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>34165.12722007244</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>34203.44182642572</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>34208.71235202163</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>34226.96903007673</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>34234.04649626611</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>34238.48421810468</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>34657.11956985008</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>34308.96179305361</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>34939.23308261257</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>34318.31737829153</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>34917.93816794224</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>35157.31357305976</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>35227.81921917081</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>35089.40875911411</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>35082.24706681464</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>34377.06110946046</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>34359.50546450599</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>34533.84773771667</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>35034.80872230382</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>35029.99510146539</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>35060.20268629812</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>35026.63508934629</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>35079.7607891057</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>35367.24248013763</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>35399.66246655161</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>34370.92464257368</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>37349.69369908507</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>37655.35217445428</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>37643.56685541464</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>37628.96034337918</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>37517.87142255621</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>37512.51194152416</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>37512.35307421732</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>37512.33746232712</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>37512.32554608038</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>37512.31666058939</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>37512.31008275536</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>37512.30461878968</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>37512.30040154755</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>37512.29671330303</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>37512.29363969716</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>37512.29104583747</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>37512.28905856166</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>37512.2876276044</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>37512.28656413136</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>37512.28572065019</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>37512.28493836714</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>37512.28410724111</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>37512.28351030618</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>37512.28319855474</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>37512.28318693493</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>37512.2834725939</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>37512.28386368963</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>37512.28146386564</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>37512.33331957124</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>37515.21641730575</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>37521.28949740374</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>37521.28863073112</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>37521.28887673921</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>37521.28949648038</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>37521.29032460966</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>37521.29161607363</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>37521.29431678002</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>37521.29788105156</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>37521.30246810272</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>37521.3107086622</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>37015.08740665741</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>38522.94365806299</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>38554.89989284897</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>38576.70996675838</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>37454.20284364814</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>37453.20312055238</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>37452.93740190646</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>37454.05761531704</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>37502.29051365388</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>38187.52592502153</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>38675.64414197217</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>38688.66066336293</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>38612.75626405134</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>38745.95087806827</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>38735.06938784648</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>38761.23627024908</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>37811.41725066138</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>37792.12575784606</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>37714.09973101771</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>37452.85827551025</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>37452.80089181769</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>37452.80165748316</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>37452.80335685275</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>37452.80533722541</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>37452.80767699653</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>37452.81024943094</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>37452.81315941914</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>37452.81668909363</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>37452.82131097199</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>37452.82749545566</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>37452.83500891579</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>37452.84412520507</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>37452.85467120173</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>37452.87380494885</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>37452.90795848925</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>37452.96345688304</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>37453.14138094497</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>37453.68255205366</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>37457.01859903507</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>37467.81350310999</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>37466.19582326348</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>37470.71793507832</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>37468.68206574809</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>37467.81511342947</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>37469.22855843625</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>37469.59441314983</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>37469.86544998056</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>37470.67310335152</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>37472.3877084958</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>37470.71150149608</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>37470.76239206894</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>37472.74374000587</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>37473.34677133917</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>37469.58041245112</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>38151.30928157892</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>37557.12444610124</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>37556.92395050485</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>37556.87862383873</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>37556.85476891225</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>37556.8541127857</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>37556.88274271093</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>37558.94455485388</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>37506.36893926881</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>37577.23438303272</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>37577.18650353271</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>37577.14563215732</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>37577.16657092781</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>37577.46821757992</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>37599.93521428622</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>38533.15741957977</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>39349.45674752734</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>39471.67573904333</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>39307.62032166461</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>39321.33819505818</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>39500.97277749531</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>39575.25575848389</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>39562.61491764172</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>39570.95036923169</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>39531.04089991263</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>39402.49708979356</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>39273.97925810955</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>37464.68109136001</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>37464.34752318988</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>37464.35221704857</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>37464.39570615</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>37465.03483518821</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>37493.76525534417</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>38315.01572462034</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>38349.99923375468</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>38355.8703855474</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>38473.46623327357</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>38425.93087453648</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>38571.1863982802</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>38635.48389562057</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>38632.53650572807</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>38622.76721122723</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>38622.239603091</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>37844.89275311787</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>37928.15405749316</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>37857.53147453394</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>37803.00910310491</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>37488.49591389645</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>37464.32176222873</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>37464.30977145469</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>37464.30850728469</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>37464.30807257168</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>37464.30784702474</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>37464.30766215638</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>37464.30751303698</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>37464.3073682505</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>37464.30726984196</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>37464.30721952531</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>37464.30716550921</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>37855.95421106825</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>37671.34991001991</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>37681.93496908874</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>37678.14417078704</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>37678.92534030601</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>37669.76000572621</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>37813.48026161113</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>37953.11196828428</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>39511.8802235958</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>38069.49980831861</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>37085.06806978877</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>37073.28513541516</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>37148.75157988106</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>37409.68937206425</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>37428.1638107546</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>37557.32553460369</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>37222.12995750363</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>37705.54799054285</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>37927.22376164804</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>37918.81387141628</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>38239.28547567454</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>38362.77840802383</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>38476.34140018285</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>38548.2850926372</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>38527.8713287344</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>38565.95798730588</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>38563.95959339319</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>38593.09759043792</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>38593.00107923858</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>38575.29495309301</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>38562.39477489753</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>38584.79004168489</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>38584.48035289069</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>38613.72812746446</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>38611.80862708326</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>38311.79332875992</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>38415.80075012169</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>38624.53853036574</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>38466.3082406299</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>38461.91176592261</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>38420.09959286638</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>38837.31554642548</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>38812.38430176557</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>38687.09647565119</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>37945.55633052754</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>38774.52043253263</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>38761.05977587741</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>38826.70534175444</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>38836.7931103854</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>38789.73598000783</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>38816.66914370401</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>38819.7018911103</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>38848.94049591639</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>38668.38337553403</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>38656.0067575143</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>38544.86945612329</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>38676.79531353881</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>38577.19897140022</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>38670.99537676247</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>38331.69303875403</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>38768.15157275501</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>38651.98546345083</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>38582.97502766474</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>38580.37883936122</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>38582.85735348023</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>38543.32448273251</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>38311.69817428062</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>38521.31723047375</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>38394.50348397359</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>38443.98979653593</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>38433.31661348024</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>38372.76093431816</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>38413.21954407929</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>38311.72273978771</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>38965.47890203592</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>38733.21119095419</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>38645.85906670634</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>38583.2988309525</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>38928.9315943676</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>38836.85545267921</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>38963.12560483042</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>39316.30261605666</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>38858.35041446774</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>38875.76902692191</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>38767.96646509168</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>38858.98428160515</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>38915.14169473912</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>39003.24704412955</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>39019.38086502517</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>39019.83542930549</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>38955.92415308995</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>38989.85611039</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>39070.2976626372</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>39079.85059373976</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>39043.02022739324</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>39102.64779919168</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>39113.6255439438</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>39158.23588061707</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>39189.08665029254</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>39209.33295159215</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>39205.32877464665</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>39201.31645366985</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>39202.48273186983</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>39197.26175513214</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>39212.85091598501</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>39247.65844537204</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>39275.20597192772</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>39299.81251866558</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>39265.4877068638</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>39182.86986457782</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>39289.18972747888</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>39256.53471114093</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>39261.25212020347</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>38444.64996443671</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>38739.76236356846</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>38898.63843547562</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>38954.79577303407</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>38932.3376439014</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>38898.79862733156</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>38898.7415695491</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>38927.82119368687</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>38775.94315302969</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>38531.02027549543</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>38480.57327629667</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>38496.8768319132</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>38484.24092092615</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>38257.7902273272</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="n">
+        <v>38436.90948278613</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>38484.79736945327</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>38443.40656979037</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
+        <v>38456.88629047489</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>38310.18477157338</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>38349.54830833722</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>38337.43250794177</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="n">
+        <v>38345.63832719906</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>38343.61806926552</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>38296.2425055619</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>38263.14775492701</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>38269.16821142179</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>38305.40340517285</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
+        <v>38280.30891284717</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>38381.05500043088</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>38479.65303164398</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>38446.64534099236</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>38387.55475897036</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>38473.77254906287</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>38565.98971343567</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>38481.65802056491</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>38380.33090432857</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>38335.90972012139</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>38259.99226345848</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>38207.32974026516</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>38200.35620662603</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>38095.28963485415</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="n">
+        <v>38119.02203784925</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="n">
+        <v>38053.1537389671</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
+        <v>37956.86876244985</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
+        <v>37007.10717274885</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>36966.19695549675</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>37436.35057979962</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>37175.77768077947</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>36813.19528647759</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="n">
+        <v>37697.71669341965</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="n">
+        <v>37622.09028904764</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
+        <v>37641.56776414499</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
+        <v>37615.17686271342</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>37713.7633924371</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>37827.19468253853</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>37749.49095312421</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>37818.88290468826</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
+        <v>37691.70976006932</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="n">
+        <v>37372.81178962772</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="n">
+        <v>36998.74602226751</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="n">
+        <v>38075.76119488724</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="n">
+        <v>38018.69452123013</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="n">
+        <v>38018.43630374349</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="n">
+        <v>38044.94259832057</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="n">
+        <v>38049.46414075251</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="n">
+        <v>38054.08795230326</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="n">
+        <v>38048.68579814279</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
+        <v>38021.77969998666</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>38074.58295098217</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>38049.20332004655</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>38003.17361096538</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>38050.32160801602</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>38116.17203269874</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>37998.8396158515</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="n">
+        <v>37964.10003525814</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="n">
+        <v>37973.37400834597</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>37929.89955894189</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>37961.12248343133</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>38006.09866443885</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>37984.151427948</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>37968.58090495401</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="n">
+        <v>37925.79413503918</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="n">
+        <v>37962.44699409979</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="n">
+        <v>38003.52997860393</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="n">
+        <v>37933.22201939674</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="n">
+        <v>37985.35886939234</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="n">
+        <v>38062.88302639709</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="n">
+        <v>38006.29728764133</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="n">
+        <v>37918.90561028801</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="n">
+        <v>37975.6960977304</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="n">
+        <v>36940.10767541666</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="n">
+        <v>37895.19360065588</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="n">
+        <v>37875.67054161724</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="n">
+        <v>37910.82556539557</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="n">
+        <v>37952.82534258726</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="n">
+        <v>37987.45263052785</v>
       </c>
     </row>
   </sheetData>
